--- a/Life/Qunatitative/Fund_Mining2.xlsx
+++ b/Life/Qunatitative/Fund_Mining2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Google\Work\MyScripts\Life\Qunatitative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78D95E0-6FB5-4AF9-9D03-184AED7F82C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849C171-F7C3-4266-8570-80D753003867}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fund_Mining2" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fund_Mining2!$F$1:$F$63</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -180,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +361,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -521,9 +530,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,11 +888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,1665 +922,1248 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>1927</v>
       </c>
       <c r="B2">
-        <v>21.52</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="C2">
-        <v>46.83</v>
+        <v>65.78</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2">
-        <v>0.95</v>
+        <v>9.19</v>
       </c>
       <c r="F2">
-        <v>1.0900000000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>127</v>
+        <v>1717</v>
       </c>
       <c r="B3">
-        <v>29.21</v>
+        <v>42.81</v>
       </c>
       <c r="C3">
-        <v>48.74</v>
+        <v>70.95</v>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
-        <v>-0.02</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="F3">
-        <v>1.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>248</v>
+        <v>1928</v>
       </c>
       <c r="B4">
-        <v>45.78</v>
+        <v>32.28</v>
       </c>
       <c r="C4">
-        <v>76.040000000000006</v>
+        <v>64.08</v>
       </c>
       <c r="D4">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="E4">
-        <v>1.84</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="F4">
-        <v>1.67</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>431</v>
+        <v>1975</v>
       </c>
       <c r="B5">
-        <v>35.22</v>
+        <v>27.4</v>
       </c>
       <c r="C5">
-        <v>41.69</v>
+        <v>65.52</v>
       </c>
       <c r="D5">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E5">
-        <v>3.79</v>
+        <v>7.95</v>
       </c>
       <c r="F5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>480</v>
+        <v>1281</v>
       </c>
       <c r="B6">
-        <v>20.85</v>
+        <v>35.479999999999997</v>
       </c>
       <c r="C6">
-        <v>44.8</v>
+        <v>59.53</v>
       </c>
       <c r="D6">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E6">
-        <v>0.66</v>
+        <v>7.91</v>
       </c>
       <c r="F6">
-        <v>1.35</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>527</v>
+        <v>2072</v>
       </c>
       <c r="B7">
-        <v>20.85</v>
+        <v>35.29</v>
       </c>
       <c r="C7">
-        <v>52.31</v>
+        <v>58.56</v>
       </c>
       <c r="D7">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>0.94</v>
+        <v>7.72</v>
       </c>
       <c r="F7">
-        <v>1.67</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>531</v>
+        <v>1645</v>
       </c>
       <c r="B8">
-        <v>36.86</v>
+        <v>23.25</v>
       </c>
       <c r="C8">
-        <v>30.05</v>
+        <v>47.52</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="E8">
-        <v>0.39</v>
+        <v>7.33</v>
       </c>
       <c r="F8">
-        <v>1.78</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>577</v>
+        <v>2082</v>
       </c>
       <c r="B9">
-        <v>25.63</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="C9">
-        <v>65.12</v>
+        <v>49.82</v>
       </c>
       <c r="D9">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E9">
-        <v>2.14</v>
+        <v>6.93</v>
       </c>
       <c r="F9">
-        <v>1.59</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>619</v>
+        <v>1694</v>
       </c>
       <c r="B10">
-        <v>42.21</v>
+        <v>22.89</v>
       </c>
       <c r="C10">
-        <v>79.790000000000006</v>
+        <v>57.27</v>
       </c>
       <c r="D10">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="E10">
-        <v>2.5499999999999998</v>
+        <v>6.44</v>
       </c>
       <c r="F10">
-        <v>1.42</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>628</v>
+        <v>1714</v>
       </c>
       <c r="B11">
-        <v>23.09</v>
+        <v>27.9</v>
       </c>
       <c r="C11">
-        <v>56.11</v>
+        <v>48.84</v>
       </c>
       <c r="D11">
         <v>0.1</v>
       </c>
       <c r="E11">
-        <v>1.02</v>
+        <v>6.33</v>
       </c>
       <c r="F11">
-        <v>1.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>742</v>
+        <v>2214</v>
       </c>
       <c r="B12">
-        <v>21.53</v>
+        <v>31.37</v>
       </c>
       <c r="C12">
-        <v>43.26</v>
+        <v>60.64</v>
       </c>
       <c r="D12">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E12">
-        <v>-0.37</v>
+        <v>6.13</v>
       </c>
       <c r="F12">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>751</v>
+        <v>1815</v>
       </c>
       <c r="B13">
-        <v>29.19</v>
+        <v>33.01</v>
       </c>
       <c r="C13">
-        <v>57.06</v>
+        <v>50.8</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13">
-        <v>-0.2</v>
+        <v>5.77</v>
       </c>
       <c r="F13">
-        <v>1.53</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>974</v>
+        <v>1542</v>
       </c>
       <c r="B14">
-        <v>27.23</v>
+        <v>31.32</v>
       </c>
       <c r="C14">
-        <v>70.040000000000006</v>
+        <v>56.1</v>
       </c>
       <c r="D14">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E14">
-        <v>1.58</v>
+        <v>5.76</v>
       </c>
       <c r="F14">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1044</v>
+        <v>1287</v>
       </c>
       <c r="B15">
-        <v>36.25</v>
+        <v>37.9</v>
       </c>
       <c r="C15">
-        <v>69.37</v>
+        <v>42.48</v>
       </c>
       <c r="D15">
         <v>0.08</v>
       </c>
       <c r="E15">
-        <v>0.78</v>
+        <v>5.45</v>
       </c>
       <c r="F15">
-        <v>1.63</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1053</v>
+        <v>2036</v>
       </c>
       <c r="B16">
-        <v>21.58</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="C16">
-        <v>44.89</v>
+        <v>42.5</v>
       </c>
       <c r="D16">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E16">
-        <v>0.33</v>
+        <v>5.37</v>
       </c>
       <c r="F16">
-        <v>1.58</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1060</v>
+        <v>1528</v>
       </c>
       <c r="B17">
-        <v>21.78</v>
+        <v>27.85</v>
       </c>
       <c r="C17">
-        <v>33.549999999999997</v>
+        <v>55.83</v>
       </c>
       <c r="D17">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E17">
-        <v>1.1299999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="F17">
-        <v>1.1399999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1102</v>
+        <v>1564</v>
       </c>
       <c r="B18">
-        <v>24.54</v>
+        <v>22.17</v>
       </c>
       <c r="C18">
-        <v>51.22</v>
+        <v>48.86</v>
       </c>
       <c r="D18">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E18">
-        <v>3.42</v>
+        <v>5.09</v>
       </c>
       <c r="F18">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1103</v>
+        <v>2045</v>
       </c>
       <c r="B19">
-        <v>22.32</v>
+        <v>48.9</v>
       </c>
       <c r="C19">
-        <v>33.33</v>
+        <v>69.790000000000006</v>
       </c>
       <c r="D19">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
-        <v>0.98</v>
+        <v>5.03</v>
       </c>
       <c r="F19">
-        <v>1.1200000000000001</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1112</v>
+        <v>1810</v>
       </c>
       <c r="B20">
-        <v>36.74</v>
+        <v>20.29</v>
       </c>
       <c r="C20">
-        <v>82.07</v>
+        <v>48.81</v>
       </c>
       <c r="D20">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E20">
-        <v>3.58</v>
+        <v>4.5</v>
       </c>
       <c r="F20">
-        <v>1.33</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1162</v>
+        <v>1712</v>
       </c>
       <c r="B21">
-        <v>30.72</v>
+        <v>26.4</v>
       </c>
       <c r="C21">
-        <v>51.6</v>
+        <v>60.28</v>
       </c>
       <c r="D21">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E21">
-        <v>1.1599999999999999</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="F21">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1178</v>
+        <v>1631</v>
       </c>
       <c r="B22">
-        <v>21.67</v>
+        <v>42.72</v>
       </c>
       <c r="C22">
-        <v>48.55</v>
+        <v>62.47</v>
       </c>
       <c r="D22">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E22">
-        <v>1.1100000000000001</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F22">
-        <v>1.24</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1179</v>
+        <v>1632</v>
       </c>
       <c r="B23">
-        <v>31.56</v>
+        <v>42.37</v>
       </c>
       <c r="C23">
-        <v>61.42</v>
+        <v>61.77</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E23">
-        <v>0.66</v>
+        <v>4.16</v>
       </c>
       <c r="F23">
-        <v>1.83</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1208</v>
+        <v>1508</v>
       </c>
       <c r="B24">
-        <v>35.54</v>
+        <v>34.729999999999997</v>
       </c>
       <c r="C24">
-        <v>57.91</v>
+        <v>44.93</v>
       </c>
       <c r="D24">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E24">
-        <v>0.54</v>
+        <v>3.99</v>
       </c>
       <c r="F24">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1281</v>
+        <v>1510</v>
       </c>
       <c r="B25">
-        <v>35.479999999999997</v>
+        <v>34.22</v>
       </c>
       <c r="C25">
-        <v>59.53</v>
+        <v>44.03</v>
       </c>
       <c r="D25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E25">
-        <v>7.91</v>
+        <v>3.89</v>
       </c>
       <c r="F25">
-        <v>0.68</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1287</v>
+        <v>2408</v>
       </c>
       <c r="B26">
-        <v>37.9</v>
+        <v>23.59</v>
       </c>
       <c r="C26">
-        <v>42.48</v>
+        <v>25.79</v>
       </c>
       <c r="D26">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="E26">
-        <v>5.45</v>
+        <v>3.87</v>
       </c>
       <c r="F26">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>1371</v>
+        <v>431</v>
       </c>
       <c r="B27">
-        <v>30.31</v>
+        <v>35.22</v>
       </c>
       <c r="C27">
-        <v>71.010000000000005</v>
+        <v>41.69</v>
       </c>
       <c r="D27">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E27">
-        <v>3.08</v>
+        <v>3.79</v>
       </c>
       <c r="F27">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1410</v>
+        <v>1112</v>
       </c>
       <c r="B28">
-        <v>24.09</v>
+        <v>36.74</v>
       </c>
       <c r="C28">
-        <v>54.98</v>
+        <v>82.07</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E28">
-        <v>2.94</v>
+        <v>3.58</v>
       </c>
       <c r="F28">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1417</v>
+        <v>1677</v>
       </c>
       <c r="B29">
-        <v>45.75</v>
+        <v>20.87</v>
       </c>
       <c r="C29">
-        <v>45.57</v>
+        <v>35.79</v>
       </c>
       <c r="D29">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E29">
-        <v>1.05</v>
+        <v>3.44</v>
       </c>
       <c r="F29">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1456</v>
+        <v>1102</v>
       </c>
       <c r="B30">
-        <v>20.02</v>
+        <v>24.54</v>
       </c>
       <c r="C30">
-        <v>19.22</v>
+        <v>51.22</v>
       </c>
       <c r="D30">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>3.42</v>
       </c>
       <c r="F30">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1458</v>
+        <v>1985</v>
       </c>
       <c r="B31">
-        <v>29.7</v>
+        <v>28.75</v>
       </c>
       <c r="C31">
-        <v>41.06</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="D31">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E31">
-        <v>3.12</v>
+        <v>3.4</v>
       </c>
       <c r="F31">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>1500</v>
+        <v>1543</v>
       </c>
       <c r="B32">
-        <v>20.22</v>
+        <v>24.35</v>
       </c>
       <c r="C32">
-        <v>29.42</v>
+        <v>32.11</v>
       </c>
       <c r="D32">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E32">
-        <v>2.4500000000000002</v>
+        <v>3.34</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>1508</v>
+        <v>1458</v>
       </c>
       <c r="B33">
-        <v>34.729999999999997</v>
+        <v>29.7</v>
       </c>
       <c r="C33">
-        <v>44.93</v>
+        <v>41.06</v>
       </c>
       <c r="D33">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E33">
-        <v>3.99</v>
+        <v>3.12</v>
       </c>
       <c r="F33">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1510</v>
+        <v>2137</v>
       </c>
       <c r="B34">
-        <v>34.22</v>
+        <v>24.07</v>
       </c>
       <c r="C34">
-        <v>44.03</v>
+        <v>24.07</v>
       </c>
       <c r="D34">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E34">
-        <v>3.89</v>
+        <v>3.11</v>
       </c>
       <c r="F34">
-        <v>1.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1528</v>
+        <v>1371</v>
       </c>
       <c r="B35">
-        <v>27.85</v>
+        <v>30.31</v>
       </c>
       <c r="C35">
-        <v>55.83</v>
+        <v>71.010000000000005</v>
       </c>
       <c r="D35">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E35">
-        <v>5.35</v>
+        <v>3.08</v>
       </c>
       <c r="F35">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>1542</v>
+        <v>1410</v>
       </c>
       <c r="B36">
-        <v>31.32</v>
+        <v>24.09</v>
       </c>
       <c r="C36">
-        <v>56.1</v>
+        <v>54.98</v>
       </c>
       <c r="D36">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="E36">
-        <v>5.76</v>
+        <v>2.94</v>
       </c>
       <c r="F36">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>1543</v>
+        <v>2450</v>
       </c>
       <c r="B37">
-        <v>24.35</v>
+        <v>27.9</v>
       </c>
       <c r="C37">
-        <v>32.11</v>
+        <v>23.02</v>
       </c>
       <c r="D37">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E37">
-        <v>3.34</v>
+        <v>2.86</v>
       </c>
       <c r="F37">
-        <v>0.94</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1563</v>
+        <v>2187</v>
       </c>
       <c r="B38">
-        <v>23.49</v>
+        <v>35.82</v>
       </c>
       <c r="C38">
-        <v>17.95</v>
+        <v>38.04</v>
       </c>
       <c r="D38">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E38">
-        <v>0.41</v>
+        <v>2.77</v>
       </c>
       <c r="F38">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1564</v>
+        <v>2300</v>
       </c>
       <c r="B39">
-        <v>22.17</v>
+        <v>26.71</v>
       </c>
       <c r="C39">
-        <v>48.86</v>
+        <v>27.62</v>
       </c>
       <c r="D39">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="E39">
-        <v>5.09</v>
+        <v>2.6</v>
       </c>
       <c r="F39">
         <v>0.91</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>1583</v>
+      <c r="A40" s="2">
+        <v>619</v>
       </c>
       <c r="B40">
-        <v>21.83</v>
+        <v>42.21</v>
       </c>
       <c r="C40">
-        <v>37.119999999999997</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="D40">
-        <v>7.0000000000000007E-2</v>
+        <v>0.22</v>
       </c>
       <c r="E40">
-        <v>1.91</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F40">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1605</v>
+        <v>1500</v>
       </c>
       <c r="B41">
-        <v>45.7</v>
+        <v>20.22</v>
       </c>
       <c r="C41">
-        <v>20.18</v>
+        <v>29.42</v>
       </c>
       <c r="D41">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E41">
-        <v>1.92</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F41">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="B42">
-        <v>42.72</v>
+        <v>30.76</v>
       </c>
       <c r="C42">
-        <v>62.47</v>
+        <v>50.67</v>
       </c>
       <c r="D42">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E42">
-        <v>4.2300000000000004</v>
+        <v>2.39</v>
       </c>
       <c r="F42">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>1632</v>
+        <v>2451</v>
       </c>
       <c r="B43">
-        <v>42.37</v>
+        <v>26.98</v>
       </c>
       <c r="C43">
-        <v>61.77</v>
+        <v>20.85</v>
       </c>
       <c r="D43">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E43">
-        <v>4.16</v>
+        <v>2.35</v>
       </c>
       <c r="F43">
-        <v>1.43</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>1638</v>
+        <v>2556</v>
       </c>
       <c r="B44">
-        <v>30.76</v>
+        <v>24.04</v>
       </c>
       <c r="C44">
-        <v>50.67</v>
+        <v>23.37</v>
       </c>
       <c r="D44">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E44">
-        <v>2.39</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F44">
-        <v>1.33</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>1645</v>
+        <v>1861</v>
       </c>
       <c r="B45">
-        <v>23.25</v>
+        <v>27.33</v>
       </c>
       <c r="C45">
-        <v>47.52</v>
+        <v>30.75</v>
       </c>
       <c r="D45">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E45">
-        <v>7.33</v>
+        <v>2.29</v>
       </c>
       <c r="F45">
-        <v>1.1599999999999999</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>1677</v>
+        <v>1740</v>
       </c>
       <c r="B46">
-        <v>20.87</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="C46">
-        <v>35.79</v>
+        <v>40.33</v>
       </c>
       <c r="D46">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E46">
-        <v>3.44</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F46">
-        <v>0.92</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1681</v>
+        <v>2068</v>
       </c>
       <c r="B47">
-        <v>23.84</v>
+        <v>49.41</v>
       </c>
       <c r="C47">
-        <v>21.09</v>
+        <v>49.51</v>
       </c>
       <c r="D47">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="E47">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="F47">
-        <v>1.1599999999999999</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>1694</v>
+        <v>577</v>
       </c>
       <c r="B48">
-        <v>22.89</v>
+        <v>25.63</v>
       </c>
       <c r="C48">
-        <v>57.27</v>
+        <v>65.12</v>
       </c>
       <c r="D48">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="E48">
-        <v>6.44</v>
+        <v>2.14</v>
       </c>
       <c r="F48">
-        <v>1.03</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>1712</v>
+        <v>1811</v>
       </c>
       <c r="B49">
-        <v>26.4</v>
+        <v>27.17</v>
       </c>
       <c r="C49">
-        <v>60.28</v>
+        <v>46.99</v>
       </c>
       <c r="D49">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E49">
-        <v>4.3899999999999997</v>
+        <v>1.99</v>
       </c>
       <c r="F49">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1714</v>
+        <v>1605</v>
       </c>
       <c r="B50">
-        <v>27.9</v>
+        <v>45.7</v>
       </c>
       <c r="C50">
-        <v>48.84</v>
+        <v>20.18</v>
       </c>
       <c r="D50">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E50">
-        <v>6.33</v>
+        <v>1.92</v>
       </c>
       <c r="F50">
-        <v>0.95</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1717</v>
+        <v>1583</v>
       </c>
       <c r="B51">
-        <v>42.81</v>
+        <v>21.83</v>
       </c>
       <c r="C51">
-        <v>70.95</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="D51">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E51">
-        <v>9.0500000000000007</v>
+        <v>1.91</v>
       </c>
       <c r="F51">
-        <v>0.88</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1740</v>
+        <v>2173</v>
       </c>
       <c r="B52">
-        <v>20.059999999999999</v>
+        <v>24.71</v>
       </c>
       <c r="C52">
-        <v>40.33</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D52">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="E52">
-        <v>2.2200000000000002</v>
+        <v>1.85</v>
       </c>
       <c r="F52">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1766</v>
+        <v>248</v>
       </c>
       <c r="B53">
-        <v>34.53</v>
+        <v>45.78</v>
       </c>
       <c r="C53">
-        <v>42.13</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="D53">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E53">
-        <v>0.24</v>
+        <v>1.84</v>
       </c>
       <c r="F53">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B54">
-        <v>20.29</v>
+        <v>22.08</v>
       </c>
       <c r="C54">
-        <v>48.81</v>
+        <v>34.049999999999997</v>
       </c>
       <c r="D54">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E54">
-        <v>4.5</v>
+        <v>1.66</v>
       </c>
       <c r="F54">
-        <v>1.1299999999999999</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1811</v>
+        <v>1938</v>
       </c>
       <c r="B55">
-        <v>27.17</v>
+        <v>21.58</v>
       </c>
       <c r="C55">
-        <v>46.99</v>
+        <v>53.54</v>
       </c>
       <c r="D55">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E55">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="F55">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1815</v>
+        <v>974</v>
       </c>
       <c r="B56">
-        <v>33.01</v>
+        <v>27.23</v>
       </c>
       <c r="C56">
-        <v>50.8</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="D56">
-        <v>7.0000000000000007E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E56">
-        <v>5.77</v>
+        <v>1.58</v>
       </c>
       <c r="F56">
-        <v>0.84</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1830</v>
+        <v>1892</v>
       </c>
       <c r="B57">
-        <v>22.08</v>
+        <v>22.31</v>
       </c>
       <c r="C57">
-        <v>34.049999999999997</v>
+        <v>11.29</v>
       </c>
       <c r="D57">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E57">
-        <v>1.66</v>
+        <v>1.18</v>
       </c>
       <c r="F57">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1840</v>
+        <v>1162</v>
       </c>
       <c r="B58">
-        <v>27.26</v>
+        <v>30.72</v>
       </c>
       <c r="C58">
-        <v>31.89</v>
+        <v>51.6</v>
       </c>
       <c r="D58">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E58">
-        <v>-0.4</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F58">
-        <v>1.1299999999999999</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1861</v>
+        <v>1060</v>
       </c>
       <c r="B59">
-        <v>27.33</v>
+        <v>21.78</v>
       </c>
       <c r="C59">
-        <v>30.75</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="D59">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E59">
-        <v>2.29</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F59">
-        <v>0.89</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1886</v>
+        <v>1178</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>21.67</v>
       </c>
       <c r="C60">
-        <v>41.66</v>
+        <v>48.55</v>
       </c>
       <c r="D60">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E60">
-        <v>0.99</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F60">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1892</v>
+        <v>2142</v>
       </c>
       <c r="B61">
-        <v>22.31</v>
+        <v>27.44</v>
       </c>
       <c r="C61">
-        <v>11.29</v>
+        <v>48.08</v>
       </c>
       <c r="D61">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E61">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="F61">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1915</v>
+        <v>1417</v>
       </c>
       <c r="B62">
-        <v>26.96</v>
+        <v>45.75</v>
       </c>
       <c r="C62">
-        <v>24.74</v>
+        <v>45.57</v>
       </c>
       <c r="D62">
         <v>0.02</v>
       </c>
       <c r="E62">
-        <v>0.21</v>
+        <v>1.05</v>
       </c>
       <c r="F62">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1927</v>
+        <v>628</v>
       </c>
       <c r="B63">
-        <v>32.840000000000003</v>
+        <v>23.09</v>
       </c>
       <c r="C63">
-        <v>65.78</v>
+        <v>56.11</v>
       </c>
       <c r="D63">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E63">
-        <v>9.19</v>
+        <v>1.02</v>
       </c>
       <c r="F63">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>1928</v>
-      </c>
-      <c r="B64">
-        <v>32.28</v>
-      </c>
-      <c r="C64">
-        <v>64.08</v>
-      </c>
-      <c r="D64">
-        <v>0.13</v>
-      </c>
-      <c r="E64">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="F64">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>1938</v>
-      </c>
-      <c r="B65">
-        <v>21.58</v>
-      </c>
-      <c r="C65">
-        <v>53.54</v>
-      </c>
-      <c r="D65">
-        <v>0.12</v>
-      </c>
-      <c r="E65">
-        <v>1.58</v>
-      </c>
-      <c r="F65">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>1975</v>
-      </c>
-      <c r="B66">
-        <v>27.4</v>
-      </c>
-      <c r="C66">
-        <v>65.52</v>
-      </c>
-      <c r="D66">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E66">
-        <v>7.95</v>
-      </c>
-      <c r="F66">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>1985</v>
-      </c>
-      <c r="B67">
-        <v>28.75</v>
-      </c>
-      <c r="C67">
-        <v>40.450000000000003</v>
-      </c>
-      <c r="D67">
-        <v>0.09</v>
-      </c>
-      <c r="E67">
-        <v>3.4</v>
-      </c>
-      <c r="F67">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>2036</v>
-      </c>
-      <c r="B68">
-        <v>37.549999999999997</v>
-      </c>
-      <c r="C68">
-        <v>42.5</v>
-      </c>
-      <c r="D68">
-        <v>0.09</v>
-      </c>
-      <c r="E68">
-        <v>5.37</v>
-      </c>
-      <c r="F68">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>2045</v>
-      </c>
-      <c r="B69">
-        <v>48.9</v>
-      </c>
-      <c r="C69">
-        <v>69.790000000000006</v>
-      </c>
-      <c r="D69">
-        <v>0.1</v>
-      </c>
-      <c r="E69">
-        <v>5.03</v>
-      </c>
-      <c r="F69">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>2068</v>
-      </c>
-      <c r="B70">
-        <v>49.41</v>
-      </c>
-      <c r="C70">
-        <v>49.51</v>
-      </c>
-      <c r="D70">
-        <v>0.09</v>
-      </c>
-      <c r="E70">
-        <v>2.17</v>
-      </c>
-      <c r="F70">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>2071</v>
-      </c>
-      <c r="B71">
-        <v>20.8</v>
-      </c>
-      <c r="C71">
-        <v>21.03</v>
-      </c>
-      <c r="D71">
-        <v>0.05</v>
-      </c>
-      <c r="E71">
-        <v>0.74</v>
-      </c>
-      <c r="F71">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>2072</v>
-      </c>
-      <c r="B72">
-        <v>35.29</v>
-      </c>
-      <c r="C72">
-        <v>58.56</v>
-      </c>
-      <c r="D72">
-        <v>0.12</v>
-      </c>
-      <c r="E72">
-        <v>7.72</v>
-      </c>
-      <c r="F72">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>2082</v>
-      </c>
-      <c r="B73">
-        <v>32.630000000000003</v>
-      </c>
-      <c r="C73">
-        <v>49.82</v>
-      </c>
-      <c r="D73">
-        <v>0.09</v>
-      </c>
-      <c r="E73">
-        <v>6.93</v>
-      </c>
-      <c r="F73">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>2137</v>
-      </c>
-      <c r="B74">
-        <v>24.07</v>
-      </c>
-      <c r="C74">
-        <v>24.07</v>
-      </c>
-      <c r="D74">
-        <v>0.01</v>
-      </c>
-      <c r="E74">
-        <v>3.11</v>
-      </c>
-      <c r="F74">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>2142</v>
-      </c>
-      <c r="B75">
-        <v>27.44</v>
-      </c>
-      <c r="C75">
-        <v>48.08</v>
-      </c>
-      <c r="D75">
-        <v>0.1</v>
-      </c>
-      <c r="E75">
-        <v>1.06</v>
-      </c>
-      <c r="F75">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>2163</v>
-      </c>
-      <c r="B76">
-        <v>104.94</v>
-      </c>
-      <c r="C76">
-        <v>111.03</v>
-      </c>
-      <c r="D76">
-        <v>0.2</v>
-      </c>
-      <c r="E76">
-        <v>3.75</v>
-      </c>
-      <c r="F76">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>2173</v>
-      </c>
-      <c r="B77">
-        <v>24.71</v>
-      </c>
-      <c r="C77">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="D77">
-        <v>0.01</v>
-      </c>
-      <c r="E77">
-        <v>1.85</v>
-      </c>
-      <c r="F77">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>2187</v>
-      </c>
-      <c r="B78">
-        <v>35.82</v>
-      </c>
-      <c r="C78">
-        <v>38.04</v>
-      </c>
-      <c r="D78">
-        <v>0.01</v>
-      </c>
-      <c r="E78">
-        <v>2.77</v>
-      </c>
-      <c r="F78">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>2214</v>
-      </c>
-      <c r="B79">
-        <v>31.37</v>
-      </c>
-      <c r="C79">
-        <v>60.64</v>
-      </c>
-      <c r="D79">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E79">
-        <v>6.13</v>
-      </c>
-      <c r="F79">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>2300</v>
-      </c>
-      <c r="B80">
-        <v>26.71</v>
-      </c>
-      <c r="C80">
-        <v>27.62</v>
-      </c>
-      <c r="D80">
-        <v>0.02</v>
-      </c>
-      <c r="E80">
-        <v>2.6</v>
-      </c>
-      <c r="F80">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>2408</v>
-      </c>
-      <c r="B81">
-        <v>23.59</v>
-      </c>
-      <c r="C81">
-        <v>25.79</v>
-      </c>
-      <c r="D81">
-        <v>0.03</v>
-      </c>
-      <c r="E81">
-        <v>3.87</v>
-      </c>
-      <c r="F81">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>2450</v>
-      </c>
-      <c r="B82">
-        <v>27.9</v>
-      </c>
-      <c r="C82">
-        <v>23.02</v>
-      </c>
-      <c r="D82">
-        <v>0.05</v>
-      </c>
-      <c r="E82">
-        <v>2.86</v>
-      </c>
-      <c r="F82">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>2451</v>
-      </c>
-      <c r="B83">
-        <v>26.98</v>
-      </c>
-      <c r="C83">
-        <v>20.85</v>
-      </c>
-      <c r="D83">
-        <v>0.05</v>
-      </c>
-      <c r="E83">
-        <v>2.35</v>
-      </c>
-      <c r="F83">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>2556</v>
-      </c>
-      <c r="B84">
-        <v>24.04</v>
-      </c>
-      <c r="C84">
-        <v>23.37</v>
-      </c>
-      <c r="D84">
-        <v>0.04</v>
-      </c>
-      <c r="E84">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F84">
-        <v>1.1000000000000001</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F67">
+    <sortCondition descending="1" ref="E2:E67"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
